--- a/portfolio-optimization/data/raw/benchmarks/ftse_balance_prices.xlsx
+++ b/portfolio-optimization/data/raw/benchmarks/ftse_balance_prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nachogutierrezdelaroza/Documents/2_PP/WM/Bond Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nachogutierrezdelaroza/Documents/2_PP/WM/portfolio-optimization/data/raw/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B67469-6425-4549-A848-6B248E24F5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5669203-53EF-4847-A873-3DAAC019BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D1301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
